--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T22:42:19-04:00</t>
+    <t>2023-09-01T14:45:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Some parties may be duplicated between the target resource and its provenance.  For instance, the prescriber is usually (but not always) the author of the prescription resource. This resource is defined with close consideration for W3C Provenance.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1794,16 +1798,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1814,10 +1818,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1828,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1837,19 +1841,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1899,13 +1903,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1931,10 +1935,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1945,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -1954,16 +1958,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2014,19 +2018,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2046,10 +2050,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2060,28 +2064,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2131,19 +2135,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2163,10 +2167,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2177,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2189,16 +2193,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2224,13 +2228,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2248,19 +2252,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2280,21 +2284,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2306,16 +2310,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2365,25 +2369,25 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -2397,14 +2401,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2423,16 +2427,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2482,7 +2486,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2500,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -2514,14 +2518,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2540,16 +2544,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2599,7 +2603,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2611,13 +2615,13 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>41</v>
@@ -2631,14 +2635,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2651,25 +2655,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2718,7 +2722,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2730,13 +2734,13 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2750,10 +2754,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2761,31 +2765,31 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2835,10 +2839,10 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>40</v>
@@ -2847,30 +2851,30 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2881,7 +2885,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -2893,13 +2897,13 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2950,13 +2954,13 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>41</v>
@@ -2968,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2982,14 +2986,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3008,16 +3012,16 @@
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3055,19 +3059,19 @@
         <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3079,13 +3083,13 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -3099,10 +3103,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3110,10 +3114,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
@@ -3122,19 +3126,19 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3184,25 +3188,25 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3216,10 +3220,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3230,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3239,19 +3243,19 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3277,13 +3281,13 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3301,25 +3305,25 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -3333,10 +3337,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3347,7 +3351,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3356,19 +3360,19 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3418,25 +3422,25 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -3450,10 +3454,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3464,7 +3468,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3473,19 +3477,19 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3535,25 +3539,25 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3567,10 +3571,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3581,7 +3585,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3593,16 +3597,16 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3652,31 +3656,31 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -3684,10 +3688,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3695,31 +3699,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3769,42 +3773,42 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3827,16 +3831,16 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3886,7 +3890,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3898,13 +3902,13 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3913,15 +3917,15 @@
         <v>41</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3932,10 +3936,10 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>41</v>
@@ -3944,13 +3948,13 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4001,42 +4005,42 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4059,13 +4063,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4092,13 +4096,13 @@
         <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>41</v>
@@ -4116,7 +4120,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4128,30 +4132,30 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4162,10 +4166,10 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>41</v>
@@ -4174,13 +4178,13 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4207,13 +4211,13 @@
         <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>41</v>
@@ -4231,31 +4235,31 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4263,10 +4267,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4277,7 +4281,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4289,13 +4293,13 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4346,13 +4350,13 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
@@ -4364,7 +4368,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4378,14 +4382,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4404,16 +4408,16 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4451,19 +4455,19 @@
         <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4475,13 +4479,13 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4495,10 +4499,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4518,22 +4522,22 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4582,7 +4586,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4594,13 +4598,13 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4614,10 +4618,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4628,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4640,13 +4644,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4697,13 +4701,13 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
@@ -4715,7 +4719,7 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4729,14 +4733,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4755,16 +4759,16 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4802,19 +4806,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4826,13 +4830,13 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4846,10 +4850,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4860,7 +4864,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4869,22 +4873,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4933,25 +4937,25 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4965,10 +4969,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4979,7 +4983,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4988,19 +4992,19 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5050,25 +5054,25 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5082,10 +5086,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5096,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5105,20 +5109,20 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5143,13 +5147,13 @@
         <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>41</v>
@@ -5167,25 +5171,25 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5199,10 +5203,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5213,7 +5217,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5222,20 +5226,20 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5284,25 +5288,25 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5316,10 +5320,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5330,7 +5334,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5339,22 +5343,22 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5403,25 +5407,25 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5435,10 +5439,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5449,7 +5453,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5458,22 +5462,22 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5522,25 +5526,25 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5554,10 +5558,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5565,13 +5569,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>41</v>
@@ -5580,19 +5584,19 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5641,10 +5645,10 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5653,30 +5657,30 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5687,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5699,13 +5703,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5756,13 +5760,13 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5788,14 +5792,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5814,16 +5818,16 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5873,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5885,13 +5889,13 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5905,14 +5909,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5925,25 +5929,25 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -5992,7 +5996,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6004,13 +6008,13 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -6024,10 +6028,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6038,7 +6042,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6047,19 +6051,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6085,13 +6089,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6109,42 +6113,42 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6155,7 +6159,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6167,13 +6171,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6224,13 +6228,13 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
@@ -6242,7 +6246,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6256,14 +6260,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6282,16 +6286,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6329,19 +6333,19 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6353,13 +6357,13 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6373,10 +6377,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6396,22 +6400,22 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6460,7 +6464,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6472,13 +6476,13 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6492,10 +6496,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6506,7 +6510,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6518,13 +6522,13 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6575,13 +6579,13 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
@@ -6593,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6607,14 +6611,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6633,16 +6637,16 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6680,19 +6684,19 @@
         <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6704,13 +6708,13 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6724,10 +6728,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6738,7 +6742,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6747,22 +6751,22 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6787,13 +6791,13 @@
         <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>41</v>
@@ -6811,25 +6815,25 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6843,10 +6847,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6857,7 +6861,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6866,19 +6870,19 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6928,25 +6932,25 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6960,10 +6964,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6974,7 +6978,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -6983,20 +6987,20 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7045,25 +7049,25 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7077,10 +7081,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7091,7 +7095,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7100,20 +7104,20 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7162,25 +7166,25 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7194,10 +7198,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7208,7 +7212,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7217,22 +7221,22 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7281,25 +7285,25 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7313,10 +7317,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7327,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7336,22 +7340,22 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7400,25 +7404,25 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7432,10 +7436,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7446,7 +7450,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7458,16 +7462,16 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7493,13 +7497,13 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -7517,7 +7521,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7529,13 +7533,13 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7544,15 +7548,15 @@
         <v>41</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7563,7 +7567,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7575,13 +7579,13 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7632,13 +7636,13 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
@@ -7650,7 +7654,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7664,14 +7668,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7690,16 +7694,16 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7737,19 +7741,19 @@
         <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7761,13 +7765,13 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7781,10 +7785,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7804,22 +7808,22 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7868,7 +7872,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7880,13 +7884,13 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7900,10 +7904,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7914,7 +7918,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7926,13 +7930,13 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7983,13 +7987,13 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
@@ -8001,7 +8005,7 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -8015,14 +8019,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8041,16 +8045,16 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8088,19 +8092,19 @@
         <v>41</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8112,13 +8116,13 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8132,10 +8136,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8146,7 +8150,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8155,22 +8159,22 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8195,13 +8199,13 @@
         <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>41</v>
@@ -8219,25 +8223,25 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8251,10 +8255,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8265,7 +8269,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8274,19 +8278,19 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8336,25 +8340,25 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8368,10 +8372,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8382,7 +8386,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -8391,20 +8395,20 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8453,25 +8457,25 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8485,10 +8489,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8499,7 +8503,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8508,20 +8512,20 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8570,25 +8574,25 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8602,10 +8606,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8616,7 +8620,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -8625,22 +8629,22 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8689,25 +8693,25 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8721,10 +8725,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8735,7 +8739,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -8744,22 +8748,22 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -8808,25 +8812,25 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8840,10 +8844,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8851,31 +8855,31 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8925,31 +8929,31 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -8957,10 +8961,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8971,7 +8975,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8983,13 +8987,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9040,13 +9044,13 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
@@ -9058,7 +9062,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -9072,14 +9076,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9098,16 +9102,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9145,19 +9149,19 @@
         <v>41</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9169,13 +9173,13 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9189,10 +9193,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9203,7 +9207,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -9212,19 +9216,19 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9274,25 +9278,25 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9306,10 +9310,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9320,7 +9324,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9329,19 +9333,19 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9367,13 +9371,13 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
@@ -9391,25 +9395,25 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9423,10 +9427,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9437,7 +9441,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -9446,19 +9450,19 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9508,25 +9512,25 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9540,10 +9544,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9554,7 +9558,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -9563,19 +9567,19 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9625,25 +9629,25 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9657,10 +9661,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9671,7 +9675,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -9683,16 +9687,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9742,25 +9746,25 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9774,10 +9778,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9800,13 +9804,13 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9857,7 +9861,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9869,30 +9873,30 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9903,7 +9907,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -9915,13 +9919,13 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9972,13 +9976,13 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -9990,7 +9994,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -10004,14 +10008,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10030,16 +10034,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10089,7 +10093,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10101,13 +10105,13 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10121,14 +10125,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10141,25 +10145,25 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10208,7 +10212,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10220,13 +10224,13 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10240,10 +10244,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10251,10 +10255,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10263,16 +10267,16 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10299,13 +10303,13 @@
         <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>41</v>
@@ -10323,42 +10327,42 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10366,10 +10370,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10378,19 +10382,19 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10440,42 +10444,42 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10501,13 +10505,13 @@
         <v>42</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10557,7 +10561,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10569,13 +10573,13 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10589,10 +10593,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10600,13 +10604,13 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>41</v>
@@ -10615,13 +10619,13 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10672,7 +10676,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10684,13 +10688,13 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10704,10 +10708,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10718,7 +10722,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -10730,13 +10734,13 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10787,13 +10791,13 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>41</v>
@@ -10805,7 +10809,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10819,14 +10823,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10845,16 +10849,16 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10892,19 +10896,19 @@
         <v>41</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -10916,13 +10920,13 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10936,10 +10940,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10947,7 +10951,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -10959,19 +10963,19 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10997,13 +11001,13 @@
         <v>41</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>41</v>
@@ -11021,10 +11025,10 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -11033,7 +11037,7 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
@@ -11053,10 +11057,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11064,10 +11068,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -11076,19 +11080,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11138,19 +11142,19 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11170,10 +11174,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11181,10 +11185,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11193,19 +11197,19 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11255,19 +11259,19 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
@@ -11287,10 +11291,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11301,7 +11305,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11313,13 +11317,13 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11370,13 +11374,13 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>41</v>
@@ -11388,7 +11392,7 @@
         <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11402,14 +11406,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11428,16 +11432,16 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11475,19 +11479,19 @@
         <v>41</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11499,13 +11503,13 @@
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11519,10 +11523,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11533,7 +11537,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -11542,19 +11546,19 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11604,25 +11608,25 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11636,10 +11640,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11650,7 +11654,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11659,19 +11663,19 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11697,13 +11701,13 @@
         <v>41</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>41</v>
@@ -11721,25 +11725,25 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11753,10 +11757,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11767,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -11776,19 +11780,19 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11838,25 +11842,25 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
@@ -11870,10 +11874,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11884,7 +11888,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -11893,19 +11897,19 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11955,25 +11959,25 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11987,10 +11991,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12001,7 +12005,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12010,22 +12014,22 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12074,19 +12078,19 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12106,10 +12110,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12120,7 +12124,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12132,16 +12136,16 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12167,13 +12171,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -12191,19 +12195,19 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
@@ -12223,10 +12227,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12237,10 +12241,10 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>41</v>
@@ -12249,16 +12253,16 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12284,13 +12288,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -12308,19 +12312,19 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -12340,10 +12344,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12351,13 +12355,13 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>41</v>
@@ -12366,16 +12370,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12425,19 +12429,19 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>

--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:45:29-04:00</t>
+    <t>2023-10-31T17:56:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ProvenanceCl.xlsx
+++ b/clcore/output/StructureDefinition-ProvenanceCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
